--- a/biology/Zoologie/Hermeuptychia_sosybius/Hermeuptychia_sosybius.xlsx
+++ b/biology/Zoologie/Hermeuptychia_sosybius/Hermeuptychia_sosybius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermeuptychia sosybius est un lépidoptère appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre Hermeuptychia dont il est le seul représentant en Amérique du Nord.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décrit sous le protonyme de Papilio sosybius par Fabricius en 1793.
-Synonyme : Cissia sosybius ; Dyar, 1903[1].
-Noms vernaculaires
-Hermeuptychia sosybius se nomme Carolina Satyr en anglais[1].
+Synonyme : Cissia sosybius ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce papillon de taille moyenne (d'une envergure variant de 32 à 38 mm) présente un dessus de couleur beige foncé uni.
-Le revers est orné d'une ligne submarginale d'ocelles la plupart clairs cernés et pupillés de marron, certains noirs pupillés et cernés de clair.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermeuptychia sosybius se nomme Carolina Satyr en anglais.
 </t>
         </is>
       </c>
@@ -574,15 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole toute l'année dans le sud de sa zone de répartition et d'avril à octobre en deux ou trois générations dans le nord  de sa zone de répartition[2],[3].
-Plantes hôtes
-Les plantes hôte de sa chenille sont des Poaceae dont Axonopus compressus, Eremochloa ophiuroides, Stenotaphrum secundatum et Poa pratensis[1],[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon de taille moyenne (d'une envergure variant de 32 à 38 mm) présente un dessus de couleur beige foncé uni.
+Le revers est orné d'une ligne submarginale d'ocelles la plupart clairs cernés et pupillés de marron, certains noirs pupillés et cernés de clair.
 </t>
         </is>
       </c>
@@ -608,16 +625,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole toute l'année dans le sud de sa zone de répartition et d'avril à octobre en deux ou trois générations dans le nord  de sa zone de répartition,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Poaceae dont Axonopus compressus, Eremochloa ophiuroides, Stenotaphrum secundatum et Poa pratensis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Nord dans tout le sud-est des USA,  de l'Oklahoma et du Texas à la côte atlantique de la Virginie à la Floride[1],[4].
-Biotope
-Il réside dans des zones herbeuses.
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord dans tout le sud-est des USA,  de l'Oklahoma et du Texas à la côte atlantique de la Virginie à la Floride,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des zones herbeuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_sosybius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
